--- a/360_SLE_Topologie_biomass.xlsx
+++ b/360_SLE_Topologie_biomass.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="D3" t="n">
         <v>7256</v>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7015</v>
+        <v>6475</v>
       </c>
       <c r="D2" t="n">
-        <v>17399</v>
+        <v>12655</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1070,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,22 +1108,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kondensationsmaschine mit Entnahme</t>
+          <t>Verbrennungsmotor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Altholz, Gebrauchtholz, Holz(sperr)müll</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11000</v>
+        <v>806</v>
       </c>
       <c r="D2" t="n">
-        <v>32000</v>
+        <v>3108</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1134,38 +1134,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biomethan (Bioerdgas)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>806</v>
+        <v>3745</v>
       </c>
       <c r="D3" t="n">
-        <v>3108</v>
+        <v>804</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Verbrennungsmotor</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Biomethan (Bioerdgas)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4505</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1678</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
